--- a/TP2-A21/data_tp2_inf8775.xlsx
+++ b/TP2-A21/data_tp2_inf8775.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanis\Desktop\Poly\A2021\INF8775\TPs\TP2-A21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F4A64-20F1-4680-B3B1-8071413AC152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946D28D-8142-4BFE-AD5C-24E47B29276E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD501C4E-1882-4294-9A17-5BA83F535144}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD501C4E-1882-4294-9A17-5BA83F535144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1789,6 +1789,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22169986719787516"/>
+          <c:y val="4.2105263157894736E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1825,10 +1833,95 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>x^4.5</c:v>
+            <c:v>1.35^x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4772131726365984E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3832355028702566E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7199922947085032E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7643164775656651E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3104030056182654E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFE5-41BE-8E33-080DF32073D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1.41^x</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1856,10 +1949,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -1874,36 +1967,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$7</c:f>
+              <c:f>Sheet1!$X$2:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3483295854719662E-5</c:v>
+                  <c:v>2.0316727271386183E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3634842406989849E-6</c:v>
+                  <c:v>1.2313789820963823E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2876834012367884E-5</c:v>
+                  <c:v>1.296856798779996E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2118453440758996E-4</c:v>
+                  <c:v>3.9041043251843528E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1650676996634757E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3842301442667012E-3</c:v>
+                  <c:v>2.9124038191390166E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,101 +2003,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>x^5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.2874436213991714E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.075625156184922E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1982838867187388E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7693603183796506E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.06186810432E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2148952706906509E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFE5-41BE-8E33-080DF32073D2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>x^6</c:v>
+            <c:v>1.47^x</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2038,10 +2034,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -2056,36 +2052,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$7</c:f>
+              <c:f>Sheet1!$W$2:$W$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4291478737997239E-7</c:v>
+                  <c:v>8.1274299308794378E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0732147319569203E-8</c:v>
+                  <c:v>6.2064195984529245E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2995709716796847E-7</c:v>
+                  <c:v>8.2355258399713648E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.726524515195478E-6</c:v>
+                  <c:v>3.1237095060075601E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1237362086399999E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.8452641285284563E-6</c:v>
+                  <c:v>2.9359640309473275E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,37 +2280,37 @@
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>f(x)=x</a:t>
+                  <a:t>f(x)=1.35</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>4.5,</a:t>
+                  <a:t>x</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t> x</a:t>
+                  <a:t>, 1.41</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>5</a:t>
+                  <a:t>x</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>,x</a:t>
+                  <a:t>, 1.47</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>6</a:t>
+                  <a:t>x</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
@@ -2568,10 +2558,101 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>x^3 log x</c:v>
+            <c:v>x^2.8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.62363568875918407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62852583705728893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70014423796090319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56601477228732977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61374115124493067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68559392857405765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2543-41DE-B288-2D6C975D7AF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>x^3.3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2631,22 +2712,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.21384079594383898</c:v>
+                  <c:v>0.11385977813289187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19991394584134065</c:v>
+                  <c:v>0.10624025707915395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20897616063443242</c:v>
+                  <c:v>0.11070252412996881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15990298799338976</c:v>
+                  <c:v>8.437650047356883E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16519828385651136</c:v>
+                  <c:v>8.6796105987705791E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17674806213051075</c:v>
+                  <c:v>9.244546647005282E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,97 +2736,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2543-41DE-B288-2D6C975D7AF2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>x^3.6</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AA$2:$AA$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.1042514169520837E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6565262843025019E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6604925386539783E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6931327107293013E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6841651919579684E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7782851099171058E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2543-41DE-B288-2D6C975D7AF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2841,7 +2831,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3035,19 +3024,7 @@
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>3</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>log x</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>,</a:t>
+                  <a:t>2.8,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
@@ -3059,7 +3036,7 @@
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>3.6</a:t>
+                  <a:t>3.3</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" sz="1000" b="0" i="0" baseline="0">
@@ -3793,13 +3770,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Test des constantes : Branch</a:t>
+              <a:t>Test des constantes : Tabou</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> and bound</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3915,54 +3887,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$V$8:$V$13</c:f>
+              <c:f>Sheet1!$AA$8:$AA$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24300000</c:v>
+                  <c:v>74903.160096148931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52521875</c:v>
+                  <c:v>124573.17869759607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102400000</c:v>
+                  <c:v>193552.13730126186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184528125</c:v>
+                  <c:v>285496.83329834224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>312500000</c:v>
+                  <c:v>404204.37911084824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>503284375</c:v>
+                  <c:v>553601.01197151467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>104.18487999999986</c:v>
+                  <c:v>8528.4571899999974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.493849999999952</c:v>
+                  <c:v>13234.686529999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>532.30426999999884</c:v>
+                  <c:v>21426.710149999977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14336.654920000001</c:v>
+                  <c:v>24089.223689999977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95683.378259999998</c:v>
+                  <c:v>35083.366129999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>161800.6557</c:v>
+                  <c:v>51177.903789999968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3970,7 +3942,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D4C-4310-81A0-EBB50A412CAF}"/>
+              <c16:uniqueId val="{00000001-71C5-48CA-9881-F0A49AF90289}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4031,7 +4003,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="30000"/>
-                  <a:t>5</a:t>
+                  <a:t>3.3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4406,8 +4378,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Test des constantes : Tabou</a:t>
+              <a:t>Test des constantes:</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Branch and bound</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4450,7 +4427,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4481,14 +4458,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18709820647419073"/>
-                  <c:y val="-9.4101049868766398E-2"/>
+                  <c:x val="1.8786665399659E-5"/>
+                  <c:y val="-5.4235066930959079E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4523,37 +4500,34 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AA$8:$AA$13</c:f>
+              <c:f>Sheet1!$V$8:$V$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>207795.68119960438</c:v>
+                  <c:v>29962.177993534297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>361946.98194339836</c:v>
+                  <c:v>166981.72489639552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>585350.46646697773</c:v>
+                  <c:v>930603.12422523228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>894468.49737592798</c:v>
+                  <c:v>5186329.0749636823</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1307049.4407390917</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1842068.1019136633</c:v>
+                  <c:v>28903845.87544493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8528.4571899999974</c:v>
                 </c:pt>
@@ -4568,9 +4542,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>35083.366129999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51177.903789999968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4578,7 +4549,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71C5-48CA-9881-F0A49AF90289}"/>
+              <c16:uniqueId val="{00000000-CA41-4AF8-A414-DB4CB7DAE4CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4590,11 +4561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1491858960"/>
-        <c:axId val="1491857296"/>
+        <c:axId val="469673344"/>
+        <c:axId val="469674176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1491858960"/>
+        <c:axId val="469673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,23 +4606,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>f(x) = x</a:t>
+                  <a:t>f(x) = 1.41</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="30000"/>
-                  <a:t>3.6</a:t>
+                  <a:t>x</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.49823490813648291"/>
-              <c:y val="0.80460629921259841"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4718,20 +4681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491857296"/>
+        <c:crossAx val="469674176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout>
-              <c:manualLayout>
-                <c:xMode val="edge"/>
-                <c:yMode val="edge"/>
-                <c:x val="0.78141666666666665"/>
-                <c:y val="0.71985272674249057"/>
-              </c:manualLayout>
-            </c:layout>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4763,7 +4718,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1491857296"/>
+        <c:axId val="469674176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,16 +4759,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Temps d'exécution</a:t>
+                  <a:t>Temps</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> (ms)</a:t>
+                  <a:t> d'exécution (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t> </a:t>
-                </a:r>
+                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4883,49 +4835,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1491858960"/>
+        <c:crossAx val="469673344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout>
-              <c:manualLayout>
-                <c:xMode val="edge"/>
-                <c:yMode val="edge"/>
-                <c:x val="8.9458442694663159E-2"/>
-                <c:y val="0.15782407407407409"/>
-              </c:manualLayout>
-            </c:layout>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8875,16 +8787,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8912,13 +8824,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -8947,16 +8859,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8984,15 +8896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9019,16 +8931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9055,23 +8967,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4036CDD-B65B-40FA-BA15-306AE047F9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE1A4D-8853-4399-830D-4A80158E872F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9093,29 +9005,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180022</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>663892</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CE1A4D-8853-4399-830D-4A80158E872F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83616B95-36C5-4DE4-8CF1-CAE06CEC04E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9431,8 +9341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940863D2-2E53-40C1-A614-51FA00BF4D8A}">
   <dimension ref="A1:AA202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9531,7 +9441,7 @@
         <v>900</v>
       </c>
       <c r="S2">
-        <f>H2/R2</f>
+        <f t="shared" ref="S2:S7" si="0">H2/R2</f>
         <v>1.3993999999999955E-3</v>
       </c>
       <c r="T2">
@@ -9543,28 +9453,28 @@
         <v>9.4738329404486343E-4</v>
       </c>
       <c r="V2">
-        <f>I2/(G2^5)</f>
-        <v>4.2874436213991714E-6</v>
+        <f>I2/(1.41^G2)</f>
+        <v>3.4772131726365984E-3</v>
       </c>
       <c r="W2">
-        <f>I2/(G2^6)</f>
-        <v>1.4291478737997239E-7</v>
+        <f>I2/(1.48^G2)</f>
+        <v>8.1274299308794378E-4</v>
       </c>
       <c r="X2">
-        <f>I2/(G2^4.5)</f>
-        <v>2.3483295854719662E-5</v>
+        <f>I2/(1.55^G2)</f>
+        <v>2.0316727271386183E-4</v>
       </c>
       <c r="Y2">
         <f>J2/(G2^4)</f>
         <v>1.0528959493827157E-2</v>
       </c>
       <c r="Z2">
-        <f>J2/(LOG(G2)*G2^3)</f>
-        <v>0.21384079594383898</v>
+        <f>J2/(G2^3.3)</f>
+        <v>0.11385977813289187</v>
       </c>
       <c r="AA2">
-        <f>J2/(G2^3.6)</f>
-        <v>4.1042514169520837E-2</v>
+        <f>J2/(G2^2.8)</f>
+        <v>0.62363568875918407</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -9574,6 +9484,10 @@
       <c r="C3">
         <v>15</v>
       </c>
+      <c r="D3">
+        <f>C3+1</f>
+        <v>16</v>
+      </c>
       <c r="G3">
         <f>35</f>
         <v>35</v>
@@ -9610,52 +9524,52 @@
         <v>0.34891011636135533</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P7" si="0">LOG(I3)</f>
+        <f t="shared" ref="P3:P7" si="1">LOG(I3)</f>
         <v>1.7520011724842524</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q7" si="1">LOG(J3)</f>
+        <f t="shared" ref="Q3:Q7" si="2">LOG(J3)</f>
         <v>4.1217136592827401</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R7" si="2">G3^2</f>
+        <f t="shared" ref="R3:R7" si="3">G3^2</f>
         <v>1225</v>
       </c>
       <c r="S3">
-        <f>H3/R3</f>
+        <f t="shared" si="0"/>
         <v>1.8229469387755055E-3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T7" si="3">H3/(G3^2.6)</f>
+        <f t="shared" ref="T3:T7" si="4">H3/(G3^2.6)</f>
         <v>2.1594005171791242E-4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U7" si="4">H3/(LOG(G3)*G3^3)</f>
+        <f t="shared" ref="U3:U6" si="5">H3/(LOG(G3)*G3^3)</f>
         <v>3.373180245605374E-5</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:W7" si="5">I3/(G3^5)</f>
-        <v>1.075625156184922E-6</v>
+        <f t="shared" ref="V3:V6" si="6">I3/(1.41^G3)</f>
+        <v>3.3832355028702566E-4</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:X7" si="6">I3/(G3^6)</f>
-        <v>3.0732147319569203E-8</v>
+        <f t="shared" ref="W3:W6" si="7">I3/(1.48^G3)</f>
+        <v>6.2064195984529245E-5</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X6" si="7">I3/(G3^4.5)</f>
-        <v>6.3634842406989849E-6</v>
+        <f t="shared" ref="X3:X6" si="8">I3/(1.55^G3)</f>
+        <v>1.2313789820963823E-5</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y7" si="8">J3/(G3^4)</f>
+        <f t="shared" ref="Y3:Y7" si="9">J3/(G3^4)</f>
         <v>8.8194495826738797E-3</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="9">J3/(LOG(G3)*G3^3)</f>
-        <v>0.19991394584134065</v>
+        <f t="shared" ref="Z3:Z7" si="10">J3/(G3^3.3)</f>
+        <v>0.10624025707915395</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA7" si="10">J3/(G3^3.6)</f>
-        <v>3.6565262843025019E-2</v>
+        <f t="shared" ref="AA3:AA7" si="11">J3/(G3^2.8)</f>
+        <v>0.62852583705728893</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -9665,6 +9579,10 @@
       <c r="C4">
         <v>16</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D12" si="12">C4+1</f>
+        <v>17</v>
+      </c>
       <c r="G4">
         <f>40</f>
         <v>40</v>
@@ -9697,56 +9615,56 @@
         <v>1.6020599913279623</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O3:O7" si="11">LOG(H4)</f>
+        <f t="shared" ref="O4:O6" si="13">LOG(H4)</f>
         <v>0.45908022636797691</v>
       </c>
       <c r="P4">
+        <f t="shared" si="1"/>
+        <v>2.7261599499788778</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>4.330955494729106</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
-        <v>2.7261599499788778</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>4.330955494729106</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="2"/>
-        <v>1600</v>
-      </c>
-      <c r="S4">
-        <f>H4/R4</f>
         <v>1.7987062499999968E-3</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9666371959147318E-4</v>
       </c>
       <c r="U4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8068646925466138E-5</v>
       </c>
       <c r="V4">
-        <f t="shared" si="5"/>
-        <v>5.1982838867187388E-6</v>
+        <f t="shared" si="6"/>
+        <v>5.7199922947085032E-4</v>
       </c>
       <c r="W4">
-        <f t="shared" si="6"/>
-        <v>1.2995709716796847E-7</v>
+        <f t="shared" si="7"/>
+        <v>8.2355258399713648E-5</v>
       </c>
       <c r="X4">
-        <f t="shared" si="7"/>
-        <v>3.2876834012367884E-5</v>
+        <f t="shared" si="8"/>
+        <v>1.296856798779996E-5</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3698086523437409E-3</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="9"/>
-        <v>0.20897616063443242</v>
+        <f t="shared" si="10"/>
+        <v>0.11070252412996881</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="10"/>
-        <v>3.6604925386539783E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.70014423796090319</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -9756,6 +9674,10 @@
       <c r="C5">
         <v>17</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
       <c r="G5">
         <f>45</f>
         <v>45</v>
@@ -9788,56 +9710,56 @@
         <v>1.6532125137753437</v>
       </c>
       <c r="O5">
+        <f t="shared" si="13"/>
+        <v>0.55005827205682467</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>4.1564478319975589</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>4.381822804457383</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>2025</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1.7523999999999984E-3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>1.7852775192024034E-4</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>2.3555484789606469E-5</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>2.7643164775656651E-3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>3.1237095060075601E-4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="8"/>
+        <v>3.9041043251843528E-5</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="9"/>
+        <v>5.874524905349789E-3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="10"/>
+        <v>8.437650047356883E-2</v>
+      </c>
+      <c r="AA5">
         <f t="shared" si="11"/>
-        <v>0.55005827205682467</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>4.1564478319975589</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>4.381822804457383</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="2"/>
-        <v>2025</v>
-      </c>
-      <c r="S5">
-        <f>H5/R5</f>
-        <v>1.7523999999999984E-3</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>1.7852775192024034E-4</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>2.3555484789606469E-5</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="5"/>
-        <v>7.7693603183796506E-5</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="6"/>
-        <v>1.726524515195478E-6</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
-        <v>5.2118453440758996E-4</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="8"/>
-        <v>5.874524905349789E-3</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="9"/>
-        <v>0.15990298799338976</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="10"/>
-        <v>2.6931327107293013E-2</v>
+        <v>0.56601477228732977</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -9847,6 +9769,10 @@
       <c r="C6">
         <v>15</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
       <c r="G6">
         <f>50</f>
         <v>50</v>
@@ -9879,56 +9805,56 @@
         <v>1.6989700043360187</v>
       </c>
       <c r="O6">
+        <f t="shared" si="13"/>
+        <v>0.66608065802255745</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>4.9808365004003541</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>4.5451012557758261</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1.8541319999999988E-3</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>1.7732037731407001E-4</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>2.182654190795581E-5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>3.3104030056182654E-3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>2.9359640309473275E-4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="8"/>
+        <v>2.9124038191390166E-5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="9"/>
+        <v>5.6133385807999991E-3</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="10"/>
+        <v>8.6796105987705791E-2</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="11"/>
-        <v>0.66608065802255745</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>4.9808365004003541</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>4.5451012557758261</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="S6">
-        <f>H6/R6</f>
-        <v>1.8541319999999988E-3</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>1.7732037731407001E-4</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>2.182654190795581E-5</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="5"/>
-        <v>3.06186810432E-4</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
-        <v>6.1237362086399999E-6</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
-        <v>2.1650676996634757E-3</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="8"/>
-        <v>5.6133385807999991E-3</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="9"/>
-        <v>0.16519828385651136</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="10"/>
-        <v>2.6841651919579684E-2</v>
+        <v>0.61374115124493067</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -9938,6 +9864,10 @@
       <c r="C7">
         <v>15</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
       <c r="G7">
         <f>55</f>
         <v>55</v>
@@ -9974,52 +9904,40 @@
         <v>0.85890997739452302</v>
       </c>
       <c r="P7">
+        <f t="shared" si="1"/>
+        <v>5.2089802772658382</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>4.7090824935269433</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>3025</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="0"/>
-        <v>5.2089802772658382</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>4.7090824935269433</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>3025</v>
-      </c>
-      <c r="S7">
-        <f>H7/R7</f>
         <v>2.3888264462809889E-3</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1575803825445486E-4</v>
       </c>
       <c r="U7">
         <f>H7/(LOG(G7)*G7^3)</f>
         <v>2.4956411888387275E-5</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="5"/>
-        <v>3.2148952706906509E-4</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>5.8452641285284563E-6</v>
-      </c>
-      <c r="X7">
-        <f>I7/(G7^4.5)</f>
-        <v>2.3842301442667012E-3</v>
-      </c>
       <c r="Y7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5928315049518437E-3</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>0.17674806213051075</v>
+        <f t="shared" si="10"/>
+        <v>9.244546647005282E-2</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="10"/>
-        <v>2.7782851099171058E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.68559392857405765</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -10029,17 +9947,21 @@
       <c r="C8">
         <v>17</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
       <c r="T8">
         <f>(G2^2.6)</f>
         <v>6926.5227066534753</v>
       </c>
       <c r="V8">
-        <f>(G2^5)</f>
-        <v>24300000</v>
+        <f>(1.41^G2)</f>
+        <v>29962.177993534297</v>
       </c>
       <c r="AA8">
-        <f>(G2^3.6)</f>
-        <v>207795.68119960438</v>
+        <f>(G2^3.3)</f>
+        <v>74903.160096148931</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -10048,21 +9970,25 @@
       </c>
       <c r="C9">
         <v>17</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="12"/>
+        <v>18</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="T9">
-        <f t="shared" ref="T9:T13" si="12">(G3^2.6)</f>
+        <f t="shared" ref="T9:T13" si="14">(G3^2.6)</f>
         <v>10341.342341239959</v>
       </c>
       <c r="V9">
-        <f t="shared" ref="V9:V13" si="13">(G3^5)</f>
-        <v>52521875</v>
+        <f t="shared" ref="V9:V13" si="15">(1.41^G3)</f>
+        <v>166981.72489639552</v>
       </c>
       <c r="AA9">
-        <f t="shared" ref="AA9:AA13" si="14">(G3^3.6)</f>
-        <v>361946.98194339836</v>
+        <f t="shared" ref="AA9:AA13" si="16">(G3^3.3)</f>
+        <v>124573.17869759607</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -10071,21 +9997,25 @@
       </c>
       <c r="C10">
         <v>16</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="T10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14633.761661674451</v>
       </c>
       <c r="V10">
-        <f t="shared" si="13"/>
-        <v>102400000</v>
+        <f>(1.41^G4)</f>
+        <v>930603.12422523228</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="14"/>
-        <v>585350.46646697773</v>
+        <f t="shared" si="16"/>
+        <v>193552.13730126186</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -10094,21 +10024,25 @@
       </c>
       <c r="C11">
         <v>14</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="T11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19877.077719465069</v>
       </c>
       <c r="V11">
-        <f t="shared" si="13"/>
-        <v>184528125</v>
+        <f t="shared" si="15"/>
+        <v>5186329.0749636823</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="14"/>
-        <v>894468.49737592798</v>
+        <f t="shared" si="16"/>
+        <v>285496.83329834224</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -10117,21 +10051,25 @@
       </c>
       <c r="C12">
         <v>15</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="T12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26140.988814781827</v>
       </c>
       <c r="V12">
-        <f t="shared" si="13"/>
-        <v>312500000</v>
+        <f t="shared" si="15"/>
+        <v>28903845.87544493</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="14"/>
-        <v>1307049.4407390917</v>
+        <f t="shared" si="16"/>
+        <v>404204.37911084824</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -10145,16 +10083,12 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="T13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33492.147307521176</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="13"/>
-        <v>503284375</v>
-      </c>
       <c r="AA13">
-        <f>(G7^3.6)</f>
-        <v>1842068.1019136633</v>
+        <f t="shared" si="16"/>
+        <v>553601.01197151467</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
